--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935A1CA-817E-437A-B2FC-71DF12A3886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D535CD3-934E-4D90-BCCA-FD5D571AFF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$P$3:$P$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$Q$3:$Q$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Subpack</t>
   </si>
@@ -247,6 +243,9 @@
   </si>
   <si>
     <t>difference from CAD weight (kg)</t>
+  </si>
+  <si>
+    <t>Subpacks</t>
   </si>
 </sst>
 </file>
@@ -338,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,6 +470,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8FF0-4474-A350-BC09FEA4CC9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -486,6 +490,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8FF0-4474-A350-BC09FEA4CC9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -501,6 +510,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8FF0-4474-A350-BC09FEA4CC9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -516,6 +530,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8FF0-4474-A350-BC09FEA4CC9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -531,6 +550,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8FF0-4474-A350-BC09FEA4CC9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -859,6 +883,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FC80-4971-B071-5A3BA01F5E33}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -874,6 +903,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FC80-4971-B071-5A3BA01F5E33}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -889,6 +923,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FC80-4971-B071-5A3BA01F5E33}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -904,6 +943,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FC80-4971-B071-5A3BA01F5E33}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -919,6 +963,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FC80-4971-B071-5A3BA01F5E33}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1217,7 +1266,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1226,6 +1275,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-40A4-4142-8C70-D1FBF3DAD0D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1241,6 +1295,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-40A4-4142-8C70-D1FBF3DAD0D1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1355,6 +1414,419 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FE11 Accumulator Weight Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A2D6-4D78-A9DF-832BFB2ADE8C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A2D6-4D78-A9DF-832BFB2ADE8C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A2D6-4D78-A9DF-832BFB2ADE8C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$3:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Structural Components</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mounts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Covers, Bases, Enclosures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Busbars/Connections</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subpacks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>16.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.42700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.0100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.90399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>47.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2D6-4D78-A9DF-832BFB2ADE8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1519,6 +1991,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2558,6 +3070,525 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3117,13 +4148,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:colOff>1104901</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3153,15 +4184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>582490</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
+      <xdr:colOff>506290</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>154818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3181,6 +4212,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481E4BC2-A41F-E45F-8930-7A47560D401F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3508,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,7 +4720,6 @@
       <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="8"/>
       <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
@@ -3687,7 +4753,6 @@
       <c r="G6" s="2">
         <v>67.900000000000006</v>
       </c>
-      <c r="H6" s="8"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
@@ -3787,6 +4852,13 @@
       <c r="H9" s="2">
         <f>G3-67.51</f>
         <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="1">
+        <f>4.71*10</f>
+        <v>47.1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">

--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D535CD3-934E-4D90-BCCA-FD5D571AFF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D763A05-9042-421E-BEEC-C779B6E2313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Subpack</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Subpacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE12 </t>
+  </si>
+  <si>
+    <t>FE12</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -324,6 +330,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -337,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,6 +1586,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-45EC-47C2-8987-07B6153A179D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1604,6 +1626,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-45EC-47C2-8987-07B6153A179D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1619,6 +1646,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-45EC-47C2-8987-07B6153A179D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1634,6 +1666,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-45EC-47C2-8987-07B6153A179D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4575,26 +4612,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4616,12 +4653,18 @@
       <c r="K2" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="O2" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="P2" s="5" t="s">
         <v>63</v>
       </c>
@@ -4629,7 +4672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4654,6 +4697,9 @@
         <f>B3</f>
         <v>3.1176000000000004</v>
       </c>
+      <c r="L3">
+        <v>5.04</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>57</v>
       </c>
@@ -4661,6 +4707,9 @@
         <f>SUM(E3:E8)</f>
         <v>16.45</v>
       </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4669,7 +4718,7 @@
         <v>31.176000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4689,6 +4738,9 @@
         <f>SUM(B5:B15)</f>
         <v>0.82000000000000006</v>
       </c>
+      <c r="L4">
+        <v>1.5</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,6 +4748,9 @@
         <f>E8</f>
         <v>1.36</v>
       </c>
+      <c r="O4">
+        <v>1.36</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>64</v>
       </c>
@@ -4704,7 +4759,7 @@
         <v>36.334000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4727,6 +4782,9 @@
         <f>SUM(B16:B17)</f>
         <v>3.9E-2</v>
       </c>
+      <c r="L5">
+        <v>3.9E-2</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>49</v>
       </c>
@@ -4734,8 +4792,11 @@
         <f>SUM(E14:E21)</f>
         <v>0.69899999999999995</v>
       </c>
+      <c r="O5">
+        <v>0.69899999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4760,6 +4821,9 @@
         <f>SUM(B18:B19)</f>
         <v>8.4680000000000005E-2</v>
       </c>
+      <c r="L6">
+        <v>0.1</v>
+      </c>
       <c r="M6" s="1" t="s">
         <v>61</v>
       </c>
@@ -4767,8 +4831,11 @@
         <f>SUM(E21:E28)</f>
         <v>0.42700000000000005</v>
       </c>
+      <c r="O6">
+        <v>0.42699999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4789,6 +4856,9 @@
         <f>B4</f>
         <v>0.33</v>
       </c>
+      <c r="L7">
+        <v>0.13</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>60</v>
       </c>
@@ -4796,8 +4866,11 @@
         <f>SUM(E9:E13)+SUM(E29:E30)</f>
         <v>2.0100000000000002</v>
       </c>
+      <c r="O7">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4824,6 +4897,9 @@
         <f>B21</f>
         <v>0.31872000000000167</v>
       </c>
+      <c r="L8">
+        <v>0.35</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>62</v>
       </c>
@@ -4831,8 +4907,11 @@
         <f>E32</f>
         <v>0.90399999999999991</v>
       </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4853,15 +4932,27 @@
         <f>G3-67.51</f>
         <v>0</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="K9">
+        <f>SUM(K3:K8)</f>
+        <v>4.7100000000000026</v>
+      </c>
+      <c r="L9">
+        <f>SUM(L3:L8)</f>
+        <v>7.1589999999999989</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N9" s="1">
         <f>4.71*10</f>
         <v>47.1</v>
       </c>
+      <c r="O9">
+        <f>L10</f>
+        <v>35.794999999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4876,8 +4967,24 @@
         <f>0.03*20</f>
         <v>0.6</v>
       </c>
+      <c r="K10">
+        <f>K9*10</f>
+        <v>47.100000000000023</v>
+      </c>
+      <c r="L10">
+        <f>L9*5</f>
+        <v>35.794999999999995</v>
+      </c>
+      <c r="N10">
+        <f>SUM(N3:N9)</f>
+        <v>68.95</v>
+      </c>
+      <c r="O10">
+        <f>SUM(O3:O9)</f>
+        <v>48.380999999999993</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -4892,7 +4999,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4907,7 +5014,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4922,7 +5029,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4936,7 +5043,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4952,7 +5059,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4967,7 +5074,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -4982,7 +5089,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -4997,7 +5104,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -5012,7 +5119,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -5027,7 +5134,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -5042,7 +5149,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -5056,7 +5163,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
@@ -5064,7 +5171,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5073,7 +5180,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
@@ -5081,7 +5188,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5090,7 +5197,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -5099,7 +5206,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
@@ -5108,7 +5215,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
@@ -5117,7 +5224,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -5125,7 +5232,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4" t="s">
         <v>54</v>
       </c>
@@ -5134,7 +5241,7 @@
         <v>19.506000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
@@ -5143,7 +5250,7 @@
         <v>0.90399999999999991</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
         <v>53</v>
       </c>

--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D763A05-9042-421E-BEEC-C779B6E2313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199ADF4E-28DE-4873-8CB2-8713E7A1BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accumulator</a:t>
+              <a:t>FE11 Accumulator</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4612,26 +4612,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>31.176000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>36.334000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>35.794999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>48.380999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
         <v>54</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>19.506000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.90399999999999991</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>53</v>
       </c>

--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199ADF4E-28DE-4873-8CB2-8713E7A1BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68762F-F9C9-4726-8658-9F90487EFA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>Subpack</t>
   </si>
@@ -252,13 +252,91 @@
   </si>
   <si>
     <t>FE12</t>
+  </si>
+  <si>
+    <t>PE floor (fans)</t>
+  </si>
+  <si>
+    <t>flat sheet without cutouts or flanges yet</t>
+  </si>
+  <si>
+    <t>smaller for FE12, estimate for now</t>
+  </si>
+  <si>
+    <t>Maintenance Receptacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounts </t>
+  </si>
+  <si>
+    <t>CAD, get weight, steel</t>
+  </si>
+  <si>
+    <t>get FE11 weight, estimate a bit smaller</t>
+  </si>
+  <si>
+    <t>FE12 % of weight</t>
+  </si>
+  <si>
+    <t>FE12 Subpack weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio </t>
+  </si>
+  <si>
+    <t>Sum of Subpack weight</t>
+  </si>
+  <si>
+    <t>Mass of Fans</t>
+  </si>
+  <si>
+    <t>Total Mass of Fans</t>
+  </si>
+  <si>
+    <t>Total FE12 Estimated weight</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>20% goal</t>
+  </si>
+  <si>
+    <t>Volume of FE12</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width </t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Volume of FE11</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>in2</t>
+  </si>
+  <si>
+    <t>volume goal 25%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +352,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -355,6 +446,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +500,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FE10/FE11</a:t>
+              <a:t>FE11</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -818,7 +911,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FE10/FE11 Accumulator</a:t>
+              <a:t>FE11 Accumulator</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1087,10 +1180,10 @@
                   <c:v>0.42700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.0100000000000002</c:v>
+                  <c:v>2.0914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.90399999999999991</c:v>
+                  <c:v>0.82260000000000133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,10 +1889,10 @@
                   <c:v>0.42700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.0100000000000002</c:v>
+                  <c:v>2.0914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.90399999999999991</c:v>
+                  <c:v>0.82260000000000133</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>47.1</c:v>
@@ -4154,10 +4247,10 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4191,9 +4284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:colOff>119743</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4610,28 +4703,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4718,7 +4811,7 @@
         <v>31.176000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4759,7 +4852,7 @@
         <v>36.334000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4796,7 +4889,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +4928,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4864,23 +4957,23 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(E9:E13)+SUM(E29:E30)</f>
-        <v>2.0100000000000002</v>
+        <v>2.0914000000000001</v>
       </c>
       <c r="O7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>0.05</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>1.36</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4905,13 +4998,13 @@
       </c>
       <c r="N8" s="1">
         <f>E32</f>
-        <v>0.90399999999999991</v>
+        <v>0.82260000000000133</v>
       </c>
       <c r="O8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4952,7 +5045,7 @@
         <v>35.794999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4984,7 +5077,7 @@
         <v>48.380999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -4996,10 +5089,11 @@
         <v>34</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <f>0.00907*20</f>
+        <v>0.18140000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5014,7 +5108,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5123,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -5043,7 +5137,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5153,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5074,7 +5168,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5089,7 +5183,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -5104,7 +5198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -5119,7 +5213,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -5134,7 +5228,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -5149,7 +5243,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -5163,7 +5257,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
@@ -5171,7 +5265,14 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <f>6.44+B30+B21</f>
+        <v>6.9177200000000019</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5180,7 +5281,14 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <f>B24/B22</f>
+        <v>1.4687303609341831</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
@@ -5188,7 +5296,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5197,7 +5305,14 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <f>B24*5</f>
+        <v>34.588600000000007</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -5206,7 +5321,14 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <f>B27/47.1</f>
+        <v>0.73436518046709143</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
@@ -5215,7 +5337,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
@@ -5224,7 +5346,14 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <f>0.053*3</f>
+        <v>0.159</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -5232,31 +5361,414 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <f>B30*5</f>
+        <v>0.79500000000000004</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="4">
         <f>SUM(E2:E30)</f>
-        <v>19.506000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.587400000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="4">
         <f>67.51-B22*10-E31</f>
-        <v>0.90399999999999991</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+        <v>0.82260000000000133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="3">
         <f>E31+E32</f>
         <v>20.410000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1">
+        <f>8.13-B45</f>
+        <v>5.2150000000000007</v>
+      </c>
+      <c r="E42">
+        <f>B70/E33</f>
+        <v>0.72007349338559501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1">
+        <f>0.583*5</f>
+        <v>2.915</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
+        <f>0.03*10</f>
+        <v>0.3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="1">
+        <f>0.00907*10</f>
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1">
+        <f>0.01*8</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1">
+        <f>0.059</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1">
+        <f>2*0.19</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59">
+        <f>E63/H63</f>
+        <v>0.57514665286404409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60">
+        <f>22</f>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61">
+        <f>14.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62">
+        <f>9.28+0.125</f>
+        <v>9.4049999999999994</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <f>H63-E63</f>
+        <v>2216.2050000000008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1">
+        <f>2*(0.01)</f>
+        <v>0.02</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63">
+        <f>E60*E61*E62</f>
+        <v>3000.1949999999997</v>
+      </c>
+      <c r="F63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63">
+        <f>H60*H61*H62</f>
+        <v>5216.4000000000005</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="1">
+        <f>2*0.01</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1">
+        <f>0.027+0.06</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <f>B70+B27</f>
+        <v>49.285300000000007</v>
+      </c>
+      <c r="F65">
+        <f>E65/67.9</f>
+        <v>0.72585125184094257</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1">
+        <f>0.03+0.01</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="4">
+        <f>SUM(B42:B67)</f>
+        <v>13.696699999999996</v>
+      </c>
+      <c r="E68">
+        <f>67.9-E65</f>
+        <v>18.614699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B68+B69</f>
+        <v>14.696699999999996</v>
       </c>
     </row>
   </sheetData>

--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68762F-F9C9-4726-8658-9F90487EFA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD9EDF-DBDB-4034-AF5E-36552FCC20EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>Subpack</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Lid</t>
   </si>
   <si>
-    <t>Mounts and Gussets</t>
-  </si>
-  <si>
     <t>Insulating Sheet</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>PE floor (fans)</t>
   </si>
   <si>
-    <t>flat sheet without cutouts or flanges yet</t>
-  </si>
-  <si>
     <t>smaller for FE12, estimate for now</t>
   </si>
   <si>
@@ -269,12 +263,6 @@
     <t xml:space="preserve">Mounts </t>
   </si>
   <si>
-    <t>CAD, get weight, steel</t>
-  </si>
-  <si>
-    <t>get FE11 weight, estimate a bit smaller</t>
-  </si>
-  <si>
     <t>FE12 % of weight</t>
   </si>
   <si>
@@ -299,9 +287,6 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>20% goal</t>
-  </si>
-  <si>
     <t>Volume of FE12</t>
   </si>
   <si>
@@ -329,7 +314,22 @@
     <t>in2</t>
   </si>
   <si>
-    <t>volume goal 25%</t>
+    <t>with first draft cutouts</t>
+  </si>
+  <si>
+    <t>add air duct weight</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Total FE11 Actual Weight</t>
+  </si>
+  <si>
+    <t>volume goal</t>
+  </si>
+  <si>
+    <t>mass goal</t>
   </si>
 </sst>
 </file>
@@ -354,13 +354,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,12 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -447,7 +440,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,10 +1164,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>16.45</c:v>
+                  <c:v>15.339072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.36</c:v>
+                  <c:v>0.24907199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0.69899999999999995</c:v>
@@ -1183,7 +1179,7 @@
                   <c:v>2.0914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.82260000000000133</c:v>
+                  <c:v>1.933527999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,10 +1873,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>16.45</c:v>
+                  <c:v>15.339072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.36</c:v>
+                  <c:v>0.24907199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0.69899999999999995</c:v>
@@ -1892,7 +1888,7 @@
                   <c:v>2.0914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.82260000000000133</c:v>
+                  <c:v>1.933527999999999</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>47.1</c:v>
@@ -4242,15 +4238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4278,15 +4274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>237565</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
+      <xdr:colOff>1176617</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4314,15 +4310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>582490</xdr:colOff>
+      <xdr:colOff>579100</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>130053</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>506290</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>154818</xdr:rowOff>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4350,15 +4346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>248209</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>344365</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4705,67 +4701,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>67.510000000000005</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1">
         <f>B3</f>
@@ -4794,11 +4790,11 @@
         <v>5.04</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="1">
         <f>SUM(E3:E8)</f>
-        <v>16.45</v>
+        <v>15.339072</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -4811,7 +4807,7 @@
         <v>31.176000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4825,7 +4821,7 @@
         <v>3.63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1">
         <f>SUM(B5:B15)</f>
@@ -4835,24 +4831,24 @@
         <v>1.5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4" s="6">
         <f>E8</f>
-        <v>1.36</v>
+        <v>0.24907199999999999</v>
       </c>
       <c r="O4">
         <v>1.36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="1">
         <f>G3-Q3</f>
         <v>36.334000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4860,16 +4856,16 @@
         <v>0.05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>1.95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1">
         <f>SUM(B16:B17)</f>
@@ -4879,7 +4875,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="1">
         <f>SUM(E14:E21)</f>
@@ -4889,7 +4885,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4898,7 +4894,7 @@
         <v>0.06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <f>0.58*4</f>
@@ -4908,7 +4904,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1">
         <f>SUM(B18:B19)</f>
@@ -4918,7 +4914,7 @@
         <v>0.1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1">
         <f>SUM(E21:E28)</f>
@@ -4928,7 +4924,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4936,7 +4932,7 @@
         <v>0.05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <f>0.45</f>
@@ -4953,7 +4949,7 @@
         <v>0.13</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(E9:E13)+SUM(E29:E30)</f>
@@ -4963,7 +4959,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4971,20 +4967,21 @@
         <v>0.05</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9">
-        <v>1.36</v>
+        <f>4*0.02278+4*0.023676+2*0.031624</f>
+        <v>0.24907199999999999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2">
         <f>G3-67.9</f>
         <v>-0.39000000000000057</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1">
         <f>B21</f>
@@ -4994,17 +4991,17 @@
         <v>0.35</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="1">
         <f>E32</f>
-        <v>0.82260000000000133</v>
+        <v>1.933527999999999</v>
       </c>
       <c r="O8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5013,13 +5010,13 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>0.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2">
         <f>G3-67.51</f>
@@ -5034,7 +5031,7 @@
         <v>7.1589999999999989</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="1">
         <f>4.71*10</f>
@@ -5045,16 +5042,16 @@
         <v>35.794999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <f>2*0.02</f>
         <v>0.04</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <f>0.03*20</f>
@@ -5070,30 +5067,30 @@
       </c>
       <c r="N10">
         <f>SUM(N3:N9)</f>
-        <v>68.95</v>
+        <v>67.839072000000002</v>
       </c>
       <c r="O10">
         <f>SUM(O3:O9)</f>
         <v>48.380999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <f>2*0.03</f>
         <v>0.06</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <f>0.00907*20</f>
         <v>0.18140000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5101,14 +5098,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1">
         <f>0.04*3</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5116,14 +5113,14 @@
         <v>0.16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1">
         <f>0.01*5</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -5131,13 +5128,13 @@
         <v>0.18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5146,14 +5143,14 @@
         <v>0.02</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1">
         <f>0.059</f>
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5161,89 +5158,89 @@
         <v>1.9E-2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <f>2*0.19</f>
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <f>0.02</f>
         <v>0.02</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <f>5.88/1000*11</f>
         <v>6.4680000000000001E-2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <f>2*0.01</f>
         <v>0.02</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B3:B19)</f>
         <v>4.3912799999999983</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4">
         <f>B22-B20</f>
         <v>0.31872000000000167</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -5251,162 +5248,167 @@
         <v>4.71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <f>6.44+B30+B21</f>
-        <v>6.9177200000000019</v>
+        <f>6.65+B30+B21</f>
+        <v>7.1277200000000018</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1">
         <f>0.03</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <f>B24/B22</f>
-        <v>1.4687303609341831</v>
+        <v>1.5133163481953296</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <f>2*(0.01)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <f>B24*5</f>
-        <v>34.588600000000007</v>
+        <v>35.638600000000011</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1">
         <f>2*0.01</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <f>B27/47.1</f>
-        <v>0.73436518046709143</v>
+        <v>0.75665817409766478</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1">
         <f>0.027+0.06</f>
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1">
         <f>0.03+0.01</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <f>0.053*3</f>
         <v>0.159</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1">
         <v>0.31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <f>B30*5</f>
         <v>0.79500000000000004</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4">
         <f>SUM(E2:E30)</f>
-        <v>19.587400000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18.476472000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4">
         <f>67.51-B22*10-E31</f>
-        <v>0.82260000000000133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.933527999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3">
         <f>E31+E32</f>
         <v>20.410000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -5416,359 +5418,371 @@
       </c>
       <c r="E42">
         <f>B70/E33</f>
-        <v>0.72007349338559501</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+        <v>0.74442038216560469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.4193199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1">
-        <v>1.06</v>
+        <v>1.5376000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1">
         <f>0.583*5</f>
         <v>2.915</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>76</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B46" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1">
         <f>0.03*10</f>
         <v>0.3</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1">
         <f>0.00907*10</f>
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1">
         <f>0.01*8</f>
         <v>0.08</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
         <f>0.059</f>
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1">
         <f>2*0.19</f>
         <v>0.38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1">
         <v>0.08</v>
       </c>
-      <c r="J58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>0.02</v>
       </c>
-      <c r="D59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" t="s">
-        <v>92</v>
-      </c>
-      <c r="J59">
-        <f>E63/H63</f>
-        <v>0.57514665286404409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="1">
         <v>0.16</v>
       </c>
-      <c r="D60" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="1">
         <f>22</f>
         <v>22</v>
       </c>
-      <c r="G60" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60">
+      <c r="G60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="1">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <f>E63/H63</f>
+        <v>0.53289270405496503</v>
+      </c>
+      <c r="K60" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1">
         <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61">
-        <f>14.5</f>
-        <v>14.5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61">
+      <c r="D61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="1">
+        <v>14.514272</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" s="1">
         <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1">
         <v>0.01</v>
       </c>
-      <c r="D62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62">
-        <f>9.28+0.125</f>
-        <v>9.4049999999999994</v>
-      </c>
-      <c r="G62" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62">
+      <c r="D62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8.7054799999999997</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="1">
         <v>9</v>
       </c>
       <c r="J62">
         <f>H63-E63</f>
-        <v>2216.2050000000008</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2436.6184985676805</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="1">
         <f>2*(0.01)</f>
         <v>0.02</v>
       </c>
-      <c r="D63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="1">
         <f>E60*E61*E62</f>
-        <v>3000.1949999999997</v>
-      </c>
-      <c r="F63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63">
+        <v>2779.7815014323201</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="1">
         <f>H60*H61*H62</f>
         <v>5216.4000000000005</v>
       </c>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" s="1">
         <f>2*0.01</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" s="1">
         <f>0.027+0.06</f>
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65">
-        <f>B70+B27</f>
-        <v>49.285300000000007</v>
-      </c>
-      <c r="F65">
-        <f>E65/67.9</f>
-        <v>0.72585125184094257</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E65" s="13">
+        <f>G6</f>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F65" s="13"/>
       <c r="G65" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1">
         <f>0.03+0.01</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="11">
+        <f>B70+B27</f>
+        <v>50.832220000000007</v>
+      </c>
+      <c r="F66" s="11">
+        <f>E66/E65</f>
+        <v>0.74863357879234171</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1">
         <v>0.31</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="4">
         <f>SUM(B42:B67)</f>
-        <v>13.696699999999996</v>
-      </c>
-      <c r="E68">
-        <f>67.9-E65</f>
-        <v>18.614699999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14.193619999999994</v>
+      </c>
+      <c r="E68" s="11">
+        <f>E65-E66</f>
+        <v>17.067779999999999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <f>B68+B69</f>
-        <v>14.696699999999996</v>
+        <v>15.193619999999994</v>
       </c>
     </row>
   </sheetData>

--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD9EDF-DBDB-4034-AF5E-36552FCC20EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7963963-8863-44AB-A256-1D6C59A2696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="113">
   <si>
     <t>Subpack</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Terminal Busbars</t>
   </si>
   <si>
-    <t>Collector Plates</t>
-  </si>
-  <si>
     <t>Top corner pieces</t>
   </si>
   <si>
@@ -257,30 +254,12 @@
     <t>smaller for FE12, estimate for now</t>
   </si>
   <si>
-    <t>Maintenance Receptacle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mounts </t>
   </si>
   <si>
     <t>FE12 % of weight</t>
   </si>
   <si>
-    <t>FE12 Subpack weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio </t>
-  </si>
-  <si>
-    <t>Sum of Subpack weight</t>
-  </si>
-  <si>
-    <t>Mass of Fans</t>
-  </si>
-  <si>
-    <t>Total Mass of Fans</t>
-  </si>
-  <si>
     <t>Total FE12 Estimated weight</t>
   </si>
   <si>
@@ -330,6 +309,72 @@
   </si>
   <si>
     <t>mass goal</t>
+  </si>
+  <si>
+    <t>52 kg rounded up with air ducts</t>
+  </si>
+  <si>
+    <t>Long Busbars</t>
+  </si>
+  <si>
+    <t>Short Busbars</t>
+  </si>
+  <si>
+    <t>Mounting blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Holders </t>
+  </si>
+  <si>
+    <t>Subpack Floor</t>
+  </si>
+  <si>
+    <t>used FE11</t>
+  </si>
+  <si>
+    <t>Negative Tab Panels</t>
+  </si>
+  <si>
+    <t>scaled down FE11 a bit</t>
+  </si>
+  <si>
+    <t>FE11 Subpack weight</t>
+  </si>
+  <si>
+    <t>FE12 Subpack projected weight</t>
+  </si>
+  <si>
+    <t>FE11 Total Subpack weight</t>
+  </si>
+  <si>
+    <t>FE12 Total Subpack weight</t>
+  </si>
+  <si>
+    <t>Subpack Weight Comparison</t>
+  </si>
+  <si>
+    <t>Total Comparison</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>CAD 6.34 kg (without collector board,fasteners)</t>
+  </si>
+  <si>
+    <t>6.569 with??</t>
+  </si>
+  <si>
+    <t>Miscellaenous</t>
+  </si>
+  <si>
+    <t>0.0907*2</t>
+  </si>
+  <si>
+    <t>lbs</t>
   </si>
 </sst>
 </file>
@@ -429,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -440,10 +485,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,26 +559,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -540,8 +566,154 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Cells</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Structrual Components</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Busbars</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Heat sink</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1176000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4680000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31872000000000167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -558,7 +730,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3D34-4356-BF94-B551961B9F07}"/>
+                <c16:uniqueId val="{0000000E-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -578,7 +750,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8FF0-4474-A350-BC09FEA4CC9A}"/>
+                <c16:uniqueId val="{00000010-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -598,7 +770,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8FF0-4474-A350-BC09FEA4CC9A}"/>
+                <c16:uniqueId val="{00000012-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -618,7 +790,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-8FF0-4474-A350-BC09FEA4CC9A}"/>
+                <c16:uniqueId val="{00000014-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -638,7 +810,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-8FF0-4474-A350-BC09FEA4CC9A}"/>
+                <c16:uniqueId val="{00000016-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -658,7 +830,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-8FF0-4474-A350-BC09FEA4CC9A}"/>
+                <c16:uniqueId val="{00000018-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -733,7 +905,7 @@
                   <c:v>Electronics</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Busbars/Collector Plates</c:v>
+                  <c:v>Busbars</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Heat sink</c:v>
@@ -773,7 +945,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D34-4356-BF94-B551961B9F07}"/>
+              <c16:uniqueId val="{00000019-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -789,13 +961,6 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -830,30 +995,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -925,26 +1069,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -952,8 +1076,154 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$3:$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Structural Components</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mounts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Covers, Bases, Enclosures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Busbars/Connections</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>15.339072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24907199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.42700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.0914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.933527999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-3D62-4C71-9E77-F8EEE9F04FE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:explosion val="3"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -971,7 +1241,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E2B4-4FBE-98D2-42A70753D918}"/>
+                <c16:uniqueId val="{0000000E-3D62-4C71-9E77-F8EEE9F04FE1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -991,7 +1261,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FC80-4971-B071-5A3BA01F5E33}"/>
+                <c16:uniqueId val="{00000010-3D62-4C71-9E77-F8EEE9F04FE1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1011,7 +1281,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-FC80-4971-B071-5A3BA01F5E33}"/>
+                <c16:uniqueId val="{00000012-3D62-4C71-9E77-F8EEE9F04FE1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1031,7 +1301,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-FC80-4971-B071-5A3BA01F5E33}"/>
+                <c16:uniqueId val="{00000014-3D62-4C71-9E77-F8EEE9F04FE1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1051,7 +1321,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-FC80-4971-B071-5A3BA01F5E33}"/>
+                <c16:uniqueId val="{00000016-3D62-4C71-9E77-F8EEE9F04FE1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1071,7 +1341,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-FC80-4971-B071-5A3BA01F5E33}"/>
+                <c16:uniqueId val="{00000018-3D62-4C71-9E77-F8EEE9F04FE1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1170,7 +1440,7 @@
                   <c:v>0.24907199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0.42700000000000005</c:v>
@@ -1186,7 +1456,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2B4-4FBE-98D2-42A70753D918}"/>
+              <c16:uniqueId val="{00000019-3D62-4C71-9E77-F8EEE9F04FE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1202,13 +1472,6 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -1243,30 +1506,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1330,6 +1572,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21507744351129643"/>
+          <c:y val="8.5000001593550839E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1408,22 +1658,129 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.917300028456379E-3"/>
+                  <c:y val="-3.7541348660317823E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.9778972172671658E-2"/>
+                      <c:h val="0.12136801877330367"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-40A4-4142-8C70-D1FBF3DAD0D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8600480953374052E-3"/>
+                  <c:y val="8.7610556573126219E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22199336130618263"/>
+                      <c:h val="0.14559285987238207"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-40A4-4142-8C70-D1FBF3DAD0D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1431,9 +1788,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1444,26 +1801,29 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1490,7 +1850,7 @@
                   <c:v>31.176000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.334000000000003</c:v>
+                  <c:v>36.724000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,12 +1863,12 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1879,7 +2239,7 @@
                   <c:v>0.24907199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0.42700000000000005</c:v>
@@ -1899,6 +2259,1641 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A2D6-4D78-A9DF-832BFB2ADE8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FE12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Subpack Weight Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-35AC-411E-9880-3E51183BFCC4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-35AC-411E-9880-3E51183BFCC4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-35AC-411E-9880-3E51183BFCC4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-35AC-411E-9880-3E51183BFCC4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-35AC-411E-9880-3E51183BFCC4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$75:$G$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cells</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Structrual Components</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Busbars/Collector Plates</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$75:$H$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6764000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2855699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2695E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-35AC-411E-9880-3E51183BFCC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FE11 Accumulator</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Container and Power Electronics Weight Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:explosion val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1397654805081881E-3"/>
+                  <c:y val="1.7195641110819414E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1624892196147365E-2"/>
+                  <c:y val="-4.4718167242335351E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$75:$J$81</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Structural Components</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mounts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Covers, Bases, Enclosures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Busbars/Connections</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miscellaenous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$75:$K$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12.086919999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.42700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.3850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F45B-4B9F-933B-1D6FC9ADE82F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>FE12 Accumulator Total Cell Weight</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21380883341227389"/>
+          <c:y val="7.8703703703703706E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4DA4-44DE-A6C5-A67905F5FDB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4DA4-44DE-A6C5-A67905F5FDB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9576156150277364E-2"/>
+                  <c:y val="-7.0442913385826769E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4DA4-44DE-A6C5-A67905F5FDB0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8108475453656216E-2"/>
+                  <c:y val="1.8384368620589092E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4DA4-44DE-A6C5-A67905F5FDB0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$75:$M$76</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cells </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Remaining Weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$75:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23.382000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.578394999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DA4-44DE-A6C5-A67905F5FDB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FE12 Accumulator</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Weight Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3E3E-4E57-B155-11C15C7D07C4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3E3E-4E57-B155-11C15C7D07C4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$75:$J$82</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Structural Components</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mounts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Covers, Bases, Enclosures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Busbars/Connections</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miscellaenous</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Subpacks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$75:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12.086919999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.42700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.3850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>31.472475000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E3E-4E57-B155-11C15C7D07C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2157,6 +4152,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -3715,6 +5790,1044 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4240,13 +7353,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>818030</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4310,15 +7423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>579099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>392205</xdr:colOff>
+      <xdr:colOff>392204</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4374,6 +7487,154 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1358154</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141234B5-CC0B-4FE4-8369-263B30A592C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665044</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>13054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100851</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>75894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAD4FA1-E575-42C2-888B-9DFDA9F6C442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233419</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>177248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145322</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>62948</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0807EE3-A38B-E6B9-D73F-F1D5633163BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1172134</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>24092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>308160</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>100292</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0503F3-9C6D-0F97-8DE9-A5A6D7EBEE54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4699,16 +7960,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -4725,40 +7987,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4780,7 +8042,7 @@
         <v>67.510000000000005</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1">
         <f>B3</f>
@@ -4790,7 +8052,7 @@
         <v>5.04</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="1">
         <f>SUM(E3:E8)</f>
@@ -4821,7 +8083,7 @@
         <v>3.63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1">
         <f>SUM(B5:B15)</f>
@@ -4831,7 +8093,7 @@
         <v>1.5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="6">
         <f>E8</f>
@@ -4841,11 +8103,11 @@
         <v>1.36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="1">
-        <f>G3-Q3</f>
-        <v>36.334000000000003</v>
+        <f>G6-Q3</f>
+        <v>36.724000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4862,10 +8124,10 @@
         <v>1.95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1">
         <f>SUM(B16:B17)</f>
@@ -4875,11 +8137,11 @@
         <v>3.9E-2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1">
-        <f>SUM(E14:E21)</f>
-        <v>0.69899999999999995</v>
+        <f>SUM(E14:E20)</f>
+        <v>0.61899999999999999</v>
       </c>
       <c r="O5">
         <v>0.69899999999999995</v>
@@ -4904,7 +8166,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1">
         <f>SUM(B18:B19)</f>
@@ -4914,7 +8176,7 @@
         <v>0.1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1">
         <f>SUM(E21:E28)</f>
@@ -4949,7 +8211,7 @@
         <v>0.13</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(E9:E13)+SUM(E29:E30)</f>
@@ -4966,22 +8228,22 @@
       <c r="B8" s="1">
         <v>0.05</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>74</v>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E8" s="9">
         <f>4*0.02278+4*0.023676+2*0.031624</f>
         <v>0.24907199999999999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2">
         <f>G3-67.9</f>
         <v>-0.39000000000000057</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1">
         <f>B21</f>
@@ -4991,7 +8253,7 @@
         <v>0.35</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1">
         <f>E32</f>
@@ -5016,7 +8278,7 @@
         <v>0.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2">
         <f>G3-67.51</f>
@@ -5031,7 +8293,7 @@
         <v>7.1589999999999989</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" s="1">
         <f>4.71*10</f>
@@ -5044,7 +8306,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <f>2*0.02</f>
@@ -5067,7 +8329,7 @@
       </c>
       <c r="N10">
         <f>SUM(N3:N9)</f>
-        <v>67.839072000000002</v>
+        <v>67.759072000000003</v>
       </c>
       <c r="O10">
         <f>SUM(O3:O9)</f>
@@ -5076,7 +8338,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <f>2*0.03</f>
@@ -5143,7 +8405,7 @@
         <v>0.02</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <f>0.059</f>
@@ -5167,7 +8429,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <f>0.02</f>
@@ -5182,7 +8444,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <f>5.88/1000*11</f>
@@ -5212,7 +8474,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B3:B19)</f>
@@ -5227,7 +8489,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4">
         <f>B22-B20</f>
@@ -5263,15 +8525,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24">
-        <f>6.65+B30+B21</f>
-        <v>7.1277200000000018</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1">
         <f>0.03</f>
@@ -5279,13 +8534,6 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25">
-        <f>B24/B22</f>
-        <v>1.5133163481953296</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
@@ -5303,13 +8551,6 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27">
-        <f>B24*5</f>
-        <v>35.638600000000011</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
@@ -5319,13 +8560,6 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28">
-        <f>B27/47.1</f>
-        <v>0.75665817409766478</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
@@ -5344,13 +8578,6 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30">
-        <f>0.053*3</f>
-        <v>0.159</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
@@ -5359,15 +8586,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31">
-        <f>B30*5</f>
-        <v>0.79500000000000004</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4">
         <f>SUM(E2:E30)</f>
@@ -5376,7 +8596,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="4">
         <f>67.51-B22*10-E31</f>
@@ -5385,7 +8605,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3">
         <f>E31+E32</f>
@@ -5393,19 +8613,19 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>93</v>
+      <c r="A40" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5418,11 +8638,11 @@
       </c>
       <c r="E42">
         <f>B70/E33</f>
-        <v>0.74442038216560469</v>
+        <v>0.8568309652131304</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="1">
@@ -5431,13 +8651,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1">
         <v>1.5376000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5450,8 +8670,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>74</v>
+      <c r="A46" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B46" s="1">
         <v>0.2</v>
@@ -5466,323 +8686,682 @@
         <v>0.3</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
-        <f>0.00907*10</f>
-        <v>9.0700000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1">
-        <v>0.04</v>
+        <f>0.01*8</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1">
-        <f>0.01*8</f>
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
-        <v>0.03</v>
+        <f>0.059</f>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1">
-        <f>0.059</f>
-        <v>5.8999999999999997E-2</v>
+        <f>2*0.19</f>
+        <v>0.38</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1">
-        <f>2*0.19</f>
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1">
-        <v>0.08</v>
+        <v>0.02</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="E59" s="1">
+        <f>22</f>
+        <v>22</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J59" t="s">
-        <v>89</v>
-      </c>
-      <c r="K59" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="H59" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="J59">
+        <f>E62/H62</f>
+        <v>0.53289270405496503</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.75</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1">
-        <v>0.16</v>
+        <f>0.03</f>
+        <v>0.03</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E60" s="1">
-        <f>22</f>
-        <v>22</v>
+        <v>14.514272</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H60" s="1">
-        <v>27.6</v>
-      </c>
-      <c r="J60">
-        <f>E63/H63</f>
-        <v>0.53289270405496503</v>
-      </c>
-      <c r="K60" s="12">
-        <v>0.75</v>
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1">
-        <f>0.03</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1">
-        <v>14.514272</v>
+        <v>8.7054799999999997</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H61" s="1">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <f>H62-E62</f>
+        <v>2436.6184985676805</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62" s="1">
-        <v>0.01</v>
+        <f>2*(0.01)</f>
+        <v>0.02</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E62" s="1">
-        <v>8.7054799999999997</v>
+        <f>E59*E60*E61</f>
+        <v>2779.7815014323201</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H62" s="1">
-        <v>9</v>
-      </c>
-      <c r="J62">
-        <f>H63-E63</f>
-        <v>2436.6184985676805</v>
+        <f>H59*H60*H61</f>
+        <v>5216.4000000000005</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" s="1">
-        <f>2*(0.01)</f>
+        <f>2*0.01</f>
         <v>0.02</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="1">
-        <f>E60*E61*E62</f>
-        <v>2779.7815014323201</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
         <v>87</v>
-      </c>
-      <c r="H63" s="1">
-        <f>H60*H61*H62</f>
-        <v>5216.4000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1">
-        <f>2*0.01</f>
-        <v>0.02</v>
-      </c>
-      <c r="F64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="1">
         <f>0.027+0.06</f>
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="13">
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64">
         <f>G6</f>
         <v>67.900000000000006</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" t="s">
-        <v>97</v>
+      <c r="G64" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B65" s="1">
         <f>0.03+0.01</f>
         <v>0.04</v>
       </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="11">
-        <f>B70+B27</f>
-        <v>50.832220000000007</v>
-      </c>
-      <c r="F66" s="11">
-        <f>E66/E65</f>
-        <v>0.74863357879234171</v>
-      </c>
-      <c r="G66" s="12">
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="10">
+        <f>B70+E79</f>
+        <v>48.960394999999998</v>
+      </c>
+      <c r="F65" s="10">
+        <f>E65/E64</f>
+        <v>0.72106620029455071</v>
+      </c>
+      <c r="G65" s="11">
         <v>0.8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B67" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="E67" t="s">
-        <v>82</v>
+        <f>0.159*15</f>
+        <v>2.3850000000000002</v>
+      </c>
+      <c r="E67" s="12">
+        <f>E64-E65</f>
+        <v>18.939605000000007</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="4">
         <f>SUM(B42:B67)</f>
-        <v>14.193619999999994</v>
-      </c>
-      <c r="E68" s="11">
-        <f>E65-E66</f>
-        <v>17.067779999999999</v>
+        <v>16.487919999999995</v>
+      </c>
+      <c r="E68">
+        <f>E67*2.205</f>
+        <v>41.761829025000019</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
       </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="3">
         <f>B68+B69</f>
-        <v>15.193619999999994</v>
+        <v>17.487919999999995</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1">
+        <f>64.95*72/1000</f>
+        <v>4.6764000000000001</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="1">
+        <f>B89</f>
+        <v>6.2944950000000004</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="1">
+        <f>B75</f>
+        <v>4.6764000000000001</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" s="1">
+        <f>SUM(B42:B45)</f>
+        <v>12.086919999999999</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <f>B75*5</f>
+        <v>23.382000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
+        <f>33.25/1000*2+49.15/1000*2</f>
+        <v>0.1648</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="1">
+        <f>B76+B77+B78+B79+B80</f>
+        <v>1.2855699999999999</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="6">
+        <f>B46</f>
+        <v>0.2</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N76" s="1">
+        <f>E65-N75</f>
+        <v>25.578394999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="1">
+        <f>0.03505*4</f>
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="1">
+        <f>E75/E76</f>
+        <v>1.3364108280254778</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="1">
+        <f>B82+B83</f>
+        <v>2.2695E-2</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="1">
+        <f>SUM(B50:B56)+B47</f>
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H78" s="1">
+        <f>B86+B85+B84</f>
+        <v>0.10983</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K78" s="1">
+        <f>SUM(B57:B64)</f>
+        <v>0.42700000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="1">
+        <f xml:space="preserve"> 0.20346*2</f>
+        <v>0.40692</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="1">
+        <f>E75*5</f>
+        <v>31.472475000000003</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79" s="1">
+        <f>B88</f>
+        <v>0.2</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79" s="1">
+        <f>SUM(B65:B66)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="1">
+        <f>0.236825*2</f>
+        <v>0.47365000000000002</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="1">
+        <f>E76*10</f>
+        <v>47.1</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" s="1">
+        <f>B67</f>
+        <v>2.3850000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="1">
+        <f>E79/E80</f>
+        <v>0.66820541401273892</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81" s="1">
+        <f>B69+B48+B49</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82">
+        <f>E79</f>
+        <v>31.472475000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="1">
+        <f>3.695/1000</f>
+        <v>3.6949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="1">
+        <f>0.003628*20</f>
+        <v>7.2559999999999999E-2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="1">
+        <f>7.27/1000 * 3</f>
+        <v>2.181E-2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="1">
+        <f>7.73/1000*2</f>
+        <v>1.5460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="4">
+        <f>SUM(B74:B86)</f>
+        <v>6.0944950000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B87+B88</f>
+        <v>6.2944950000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>6.569</v>
       </c>
     </row>
   </sheetData>

--- a/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
+++ b/FE12/Weight Distribution Studies/Accumulator Weight Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Weight Distribution Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7963963-8863-44AB-A256-1D6C59A2696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191ABCE-1C37-478C-B48D-3670312E7312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{879E6154-3167-41E1-8BFC-E61D3D520CD3}"/>
   </bookViews>
@@ -489,7 +489,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +585,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
@@ -595,7 +594,6 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
@@ -605,7 +603,6 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
@@ -615,7 +612,6 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
@@ -625,7 +621,6 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-4BA5-44F5-AE35-4BE3B0C01E6D}"/>
@@ -1095,7 +1090,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-3D62-4C71-9E77-F8EEE9F04FE1}"/>
@@ -1105,7 +1099,6 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-3D62-4C71-9E77-F8EEE9F04FE1}"/>
@@ -1115,7 +1108,6 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-3D62-4C71-9E77-F8EEE9F04FE1}"/>
@@ -1125,7 +1117,6 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-3D62-4C71-9E77-F8EEE9F04FE1}"/>
@@ -1135,7 +1126,6 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-3D62-4C71-9E77-F8EEE9F04FE1}"/>
@@ -2777,7 +2767,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FE11 Accumulator</a:t>
+              <a:t>FE12 Accumulator</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3672,6 +3662,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8D9D-4BC4-9C18-85D43D05E6E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3687,6 +3682,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8D9D-4BC4-9C18-85D43D05E6E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3702,6 +3702,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8D9D-4BC4-9C18-85D43D05E6E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3717,6 +3722,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8D9D-4BC4-9C18-85D43D05E6E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3732,6 +3742,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8D9D-4BC4-9C18-85D43D05E6E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3749,6 +3764,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8D9D-4BC4-9C18-85D43D05E6E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -7962,8 +7982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F21477-A8EC-4562-AE62-81692505D30C}">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
